--- a/工作日志与计划/公司周工作计划（8.8 - 8.13）.xlsx
+++ b/工作日志与计划/公司周工作计划（8.8 - 8.13）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\工作日志与计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\工作日志与计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC889584-69B7-41C1-AE95-0FF9343E4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80AF06-E44A-4EC2-BFE9-0B8627140781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>内容部工作计划（8.15 - 8.19）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>付亮</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>8.17 - 8.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部工作计划（8.15 - 8.19）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -270,47 +270,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +590,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -605,28 +605,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -655,69 +655,69 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <v>0.9</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>24</v>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,18 +730,18 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,9 +750,9 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
